--- a/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 1_it_IT.xlsx
+++ b/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 1_it_IT.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -464,15 +464,20 @@
           <t>ms276_title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ms276_title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Correspondance avec les Ministres et autres fonctionnaires du gouvernement de S.M. Sarde (Corrispondenza con Ministri e altri funzionari del governo di S.M. Sarda)</t>
         </is>
       </c>
-      <c r="C1" t="n">
-        <v>1818</v>
-      </c>
       <c r="D1" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E1" t="n">
         <v>1819</v>
       </c>
     </row>
@@ -482,18 +487,23 @@
           <t>ms276_1_title</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ms276_1_title</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Correspondance avec les Ministres et autres fonctionnaires du gouvernement de S.M. Sarde (Corrispondenza con Ministri e altri funzionari del governo di S.M. Sarda)</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1817</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1819</v>
       </c>
-      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -501,31 +511,36 @@
           <t>ms276_1_1</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ms276_1_1</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1817</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>12</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -537,31 +552,36 @@
           <t>ms276_1_2</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ms276_1_1</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1817</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>12</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -573,31 +593,36 @@
           <t>ms276_1_3</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ms276_1_3</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1817</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -609,31 +634,36 @@
           <t>ms276_1_4</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ms276_1_3</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1817</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -645,31 +675,36 @@
           <t>ms276_1_5</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ms276_1_3</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1817</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -681,31 +716,36 @@
           <t>ms276_1_6</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ms276_1_6</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1817</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -717,31 +757,36 @@
           <t>ms276_1_7</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ms276_1_6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1817</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>12</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>6</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -753,31 +798,36 @@
           <t>ms276_1_8</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ms276_1_8</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1817</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -789,31 +839,36 @@
           <t>ms276_1_9</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ms276_1_8</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1817</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>8</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -825,31 +880,36 @@
           <t>ms276_1_10</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ms276_1_10</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1817</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>23</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -861,31 +921,36 @@
           <t>ms276_1_11</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ms276_1_10</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1817</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>23</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -897,31 +962,36 @@
           <t>ms276_1_12</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ms276_1_12</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1817</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>23</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -933,31 +1003,36 @@
           <t>ms276_1_13</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ms276_1_12</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1817</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>12</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>23</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -969,31 +1044,36 @@
           <t>ms276_1_14</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ms276_1_14</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1817</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>12</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>27</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1005,31 +1085,36 @@
           <t>ms276_1_15</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ms276_1_14</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>1817</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>12</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>27</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1041,31 +1126,36 @@
           <t>ms276_1_16</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ms276_1_14</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>1817</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>12</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>27</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1077,31 +1167,36 @@
           <t>ms276_1_17</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ms276_1_14</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>1817</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>12</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>27</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1113,31 +1208,36 @@
           <t>ms276_1_18</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ms276_1_18</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Lettera della $Pastoris al $HoevenE</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1817</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>30</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>$Pastoris</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1149,31 +1249,36 @@
           <t>ms276_1_19</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ms276_1_18</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Lettera della $Pastoris al $HoevenE</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>1817</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>12</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>30</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>$Pastoris</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1185,31 +1290,36 @@
           <t>ms276_1_20</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ms276_1_20</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1818</v>
-      </c>
       <c r="D22" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1221,31 +1331,36 @@
           <t>ms276_1_21</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ms276_1_20</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>1818</v>
-      </c>
       <c r="D23" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1257,31 +1372,36 @@
           <t>ms276_1_22</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1818</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ms276_1_22</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D24" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>7</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1293,31 +1413,36 @@
           <t>ms276_1_23</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1818</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ms276_1_22</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D25" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>7</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1329,31 +1454,36 @@
           <t>ms276_1_24</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1818</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ms276_1_24</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D26" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>8</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1365,31 +1495,36 @@
           <t>ms276_1_25</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1818</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ms276_1_24</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D27" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>8</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1401,31 +1536,36 @@
           <t>ms276_1_26</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ms276_1_26</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>1818</v>
-      </c>
       <c r="D28" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>8</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1437,31 +1577,36 @@
           <t>ms276_1_27</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ms276_1_26</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>1818</v>
-      </c>
       <c r="D29" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>8</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1473,31 +1618,36 @@
           <t>ms276_1_28</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1818</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ms276_1_28</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D30" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>14</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1509,31 +1659,36 @@
           <t>ms276_1_29</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1818</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ms276_1_28</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D31" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>14</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1545,31 +1700,36 @@
           <t>ms276_1_30</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ms276_1_30</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1818</v>
-      </c>
       <c r="D32" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>17</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1581,31 +1741,36 @@
           <t>ms276_1_31</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ms276_1_30</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>1818</v>
-      </c>
       <c r="D33" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>17</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1617,31 +1782,36 @@
           <t>ms276_1_32</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1818</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ms276_1_32</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D34" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>17</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1653,31 +1823,36 @@
           <t>ms276_1_33</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1818</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ms276_1_32</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D35" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>17</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1689,31 +1864,36 @@
           <t>ms276_1_34</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1818</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ms276_1_34</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D36" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>23</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1725,31 +1905,36 @@
           <t>ms276_1_35</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1818</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ms276_1_34</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D37" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>23</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1761,31 +1946,36 @@
           <t>ms276_1_36</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ms276_1_36</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1818</v>
-      </c>
       <c r="D38" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>24</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1797,31 +1987,36 @@
           <t>ms276_1_37</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ms276_1_36</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>1818</v>
-      </c>
       <c r="D39" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>24</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1833,31 +2028,36 @@
           <t>ms276_1_38</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1818</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ms276_1_38</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D40" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>26</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1869,31 +2069,36 @@
           <t>ms276_1_39</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1818</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ms276_1_38</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D41" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>26</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1905,31 +2110,36 @@
           <t>ms276_1_40</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1818</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ms276_1_40</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D42" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>27</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1941,31 +2151,36 @@
           <t>ms276_1_41</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1818</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ms276_1_40</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D43" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>27</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1977,31 +2192,36 @@
           <t>ms276_1_42</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1818</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ms276_1_42</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D44" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E44" t="n">
         <v>2</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>7</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2013,31 +2233,36 @@
           <t>ms276_1_43</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1818</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ms276_1_42</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D45" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E45" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>7</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2049,31 +2274,36 @@
           <t>ms276_1_44</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1818</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ms276_1_44</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D46" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E46" t="n">
         <v>2</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>8</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2085,31 +2315,36 @@
           <t>ms276_1_45</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1818</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ms276_1_44</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D47" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E47" t="n">
         <v>2</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>8</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2121,31 +2356,36 @@
           <t>ms276_1_46</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ms276_1_46</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1818</v>
-      </c>
       <c r="D48" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E48" t="n">
         <v>2</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>13</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2157,31 +2397,36 @@
           <t>ms276_1_47</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ms276_1_46</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>1818</v>
-      </c>
       <c r="D49" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E49" t="n">
         <v>2</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>13</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2193,31 +2438,36 @@
           <t>ms276_1_48</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1818</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ms276_1_48</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D50" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>14</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2229,31 +2479,36 @@
           <t>ms276_1_49</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1818</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ms276_1_48</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D51" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E51" t="n">
         <v>2</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>14</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2265,31 +2520,36 @@
           <t>ms276_1_50</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ms276_1_50</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1818</v>
-      </c>
       <c r="D52" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E52" t="n">
         <v>2</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>14</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2301,31 +2561,36 @@
           <t>ms276_1_51</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ms276_1_50</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>1818</v>
-      </c>
       <c r="D53" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E53" t="n">
         <v>2</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>14</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2337,31 +2602,36 @@
           <t>ms276_1_52</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1818</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ms276_1_52</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D54" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E54" t="n">
         <v>3</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>4</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2373,31 +2643,36 @@
           <t>ms276_1_53</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1818</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ms276_1_52</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D55" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E55" t="n">
         <v>3</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>4</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2409,31 +2684,36 @@
           <t>ms276_1_54</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ms276_1_54</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>1818</v>
-      </c>
       <c r="D56" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E56" t="n">
         <v>3</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>4</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2445,31 +2725,36 @@
           <t>ms276_1_55</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ms276_1_54</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1818</v>
-      </c>
       <c r="D57" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E57" t="n">
         <v>3</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>4</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G57" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2481,31 +2766,36 @@
           <t>ms276_1_56</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ms276_1_56</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>1818</v>
-      </c>
       <c r="D58" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E58" t="n">
         <v>3</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>13</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2517,31 +2807,36 @@
           <t>ms276_1_57</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ms276_1_56</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>1818</v>
-      </c>
       <c r="D59" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E59" t="n">
         <v>3</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>13</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2553,31 +2848,36 @@
           <t>ms276_1_58</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1818</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ms276_1_58</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D60" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E60" t="n">
         <v>3</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>21</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2589,31 +2889,36 @@
           <t>ms276_1_59</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1818</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ms276_1_58</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D61" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E61" t="n">
         <v>3</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>21</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2625,31 +2930,36 @@
           <t>ms276_1_60</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ms276_1_60</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>1818</v>
-      </c>
       <c r="D62" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E62" t="n">
         <v>3</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>27</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2661,31 +2971,36 @@
           <t>ms276_1_61</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ms276_1_60</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>1818</v>
-      </c>
       <c r="D63" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E63" t="n">
         <v>3</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>27</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2697,31 +3012,36 @@
           <t>ms276_1_62</t>
         </is>
       </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1818</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ms276_1_62</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D64" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>31</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2733,31 +3053,36 @@
           <t>ms276_1_63</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ms276_1_63</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>1818</v>
-      </c>
       <c r="D65" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>25</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2769,31 +3094,36 @@
           <t>ms276_1_64</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ms276_1_63</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>1818</v>
-      </c>
       <c r="D66" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E66" t="n">
         <v>4</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>25</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2805,31 +3135,36 @@
           <t>ms276_1_65</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ms276_1_65</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>1818</v>
-      </c>
       <c r="D67" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E67" t="n">
         <v>5</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>22</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2841,31 +3176,36 @@
           <t>ms276_1_66</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ms276_1_65</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>1818</v>
-      </c>
       <c r="D68" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E68" t="n">
         <v>5</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>22</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2877,31 +3217,36 @@
           <t>ms276_1_67</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ms276_1_67</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>1818</v>
-      </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>1818</v>
       </c>
       <c r="E69" t="n">
         <v>6</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
+      <c r="F69" t="n">
+        <v>6</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2913,31 +3258,36 @@
           <t>ms276_1_68</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ms276_1_67</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>1818</v>
-      </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>1818</v>
       </c>
       <c r="E70" t="n">
         <v>6</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
+      <c r="F70" t="n">
+        <v>6</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2949,31 +3299,36 @@
           <t>ms276_1_69</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ms276_1_69</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>1818</v>
-      </c>
       <c r="D71" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E71" t="n">
         <v>6</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>13</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2985,31 +3340,36 @@
           <t>ms276_1_70</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ms276_1_69</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>1818</v>
-      </c>
       <c r="D72" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E72" t="n">
         <v>6</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>13</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G72" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3021,31 +3381,36 @@
           <t>ms276_1_71</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ms276_1_71</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>1818</v>
-      </c>
       <c r="D73" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E73" t="n">
         <v>6</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>17</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3057,31 +3422,36 @@
           <t>ms276_1_72</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ms276_1_71</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>1818</v>
-      </c>
       <c r="D74" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E74" t="n">
         <v>6</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>17</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3093,31 +3463,36 @@
           <t>ms276_1_73</t>
         </is>
       </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1818</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ms276_1_73</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D75" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E75" t="n">
         <v>7</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>4</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3129,31 +3504,36 @@
           <t>ms276_1_74</t>
         </is>
       </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1818</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ms276_1_73</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D76" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E76" t="n">
         <v>7</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>4</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3165,31 +3545,36 @@
           <t>ms276_1_75</t>
         </is>
       </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1818</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ms276_1_75</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D77" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E77" t="n">
         <v>7</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>6</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3201,31 +3586,36 @@
           <t>ms276_1_76</t>
         </is>
       </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1818</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ms276_1_75</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D78" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E78" t="n">
         <v>7</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>6</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3237,31 +3627,36 @@
           <t>ms276_1_77</t>
         </is>
       </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1818</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ms276_1_77</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D79" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E79" t="n">
         <v>7</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>11</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3273,31 +3668,36 @@
           <t>ms276_1_78</t>
         </is>
       </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>1818</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ms276_1_77</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D80" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E80" t="n">
         <v>7</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>11</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3309,31 +3709,36 @@
           <t>ms276_1_79</t>
         </is>
       </c>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>1818</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ms276_1_79</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D81" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E81" t="n">
         <v>7</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>23</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3345,31 +3750,36 @@
           <t>ms276_1_80</t>
         </is>
       </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1818</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ms276_1_79</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D82" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E82" t="n">
         <v>7</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>23</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3381,31 +3791,36 @@
           <t>ms276_1_81</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ms276_1_81</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>1818</v>
-      </c>
       <c r="D83" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E83" t="n">
         <v>7</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>30</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3417,31 +3832,36 @@
           <t>ms276_1_82</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ms276_1_81</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>1818</v>
-      </c>
       <c r="D84" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E84" t="n">
         <v>7</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>30</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3453,31 +3873,36 @@
           <t>ms276_1_83</t>
         </is>
       </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>1818</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ms276_1_83</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D85" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E85" t="n">
         <v>8</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>19</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3489,31 +3914,36 @@
           <t>ms276_1_84</t>
         </is>
       </c>
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>1818</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ms276_1_83</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D86" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E86" t="n">
         <v>8</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>19</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3525,31 +3955,36 @@
           <t>ms276_1_85</t>
         </is>
       </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>1818</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ms276_1_85</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D87" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E87" t="n">
         <v>9</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>5</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3561,31 +3996,36 @@
           <t>ms276_1_86</t>
         </is>
       </c>
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>1818</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ms276_1_85</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D88" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E88" t="n">
         <v>9</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>5</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3597,31 +4037,36 @@
           <t>ms276_1_87</t>
         </is>
       </c>
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>1818</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ms276_1_85</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D89" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E89" t="n">
         <v>9</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>5</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3633,31 +4078,36 @@
           <t>ms276_1_88</t>
         </is>
       </c>
-      <c r="B90" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>1818</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ms276_1_85</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D90" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E90" t="n">
         <v>9</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>5</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3669,31 +4119,36 @@
           <t>ms276_1_89</t>
         </is>
       </c>
-      <c r="B91" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1818</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ms276_1_89</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D91" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E91" t="n">
         <v>9</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>22</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3705,31 +4160,36 @@
           <t>ms276_1_90</t>
         </is>
       </c>
-      <c r="B92" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>1818</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ms276_1_89</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D92" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E92" t="n">
         <v>9</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>22</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3741,31 +4201,36 @@
           <t>ms276_1_91</t>
         </is>
       </c>
-      <c r="B93" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>1818</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ms276_1_91</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D93" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E93" t="n">
         <v>9</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>24</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3777,31 +4242,36 @@
           <t>ms276_1_92</t>
         </is>
       </c>
-      <c r="B94" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>1818</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ms276_1_91</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D94" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E94" t="n">
         <v>9</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>24</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3813,26 +4283,31 @@
           <t>ms276_1_93</t>
         </is>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ms276_1_93</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>Lettera di $Vignale con alcune lagnanze nei confronti dell'Ufficio Passaporti che non teneva conto dei suoi ordini sul rilascio degli stessi</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>1818</v>
-      </c>
       <c r="D95" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E95" t="n">
         <v>10</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>2</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Nizza</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>$Vignale</t>
         </is>
@@ -3844,31 +4319,36 @@
           <t>ms276_1_94</t>
         </is>
       </c>
-      <c r="B96" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>1818</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ms276_1_94</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D96" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E96" t="n">
         <v>10</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>13</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3880,31 +4360,36 @@
           <t>ms276_1_95</t>
         </is>
       </c>
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>1818</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ms276_1_94</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D97" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E97" t="n">
         <v>10</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>13</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3916,31 +4401,36 @@
           <t>ms276_1_96</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ms276_1_96</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>1818</v>
-      </c>
       <c r="D98" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E98" t="n">
         <v>10</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>19</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G98" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3952,31 +4442,36 @@
           <t>ms276_1_97</t>
         </is>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ms276_1_97</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>1818</v>
-      </c>
       <c r="D99" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E99" t="n">
         <v>10</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>15</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G99" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -3988,31 +4483,36 @@
           <t>ms276_1_98</t>
         </is>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ms276_1_97</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>1818</v>
-      </c>
       <c r="D100" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E100" t="n">
         <v>10</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>15</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G100" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4024,31 +4524,36 @@
           <t>ms276_1_99</t>
         </is>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ms276_1_97</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>1818</v>
-      </c>
       <c r="D101" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E101" t="n">
         <v>10</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>15</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G101" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4060,31 +4565,36 @@
           <t>ms276_1_100</t>
         </is>
       </c>
-      <c r="B102" s="1" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ms276_1_100</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
         <is>
           <t>Copia di lettere del $HoevenE al $MarzanoF e a $Vignale</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>1818</v>
-      </c>
       <c r="D102" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E102" t="n">
         <v>10</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>23</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>$HoevenE</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
+        <is>
+          <t>$HoevenE</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>$MarzanoF; $Vignale</t>
         </is>
@@ -4096,31 +4606,36 @@
           <t>ms276_1_101</t>
         </is>
       </c>
-      <c r="B103" s="1" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ms276_1_100</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
         <is>
           <t>Copia di lettere del $HoevenE al $MarzanoF e a $Vignale</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>1818</v>
-      </c>
       <c r="D103" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E103" t="n">
         <v>10</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>23</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>$HoevenE</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
+        <is>
+          <t>$HoevenE</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>$MarzanoF; $Vignale</t>
         </is>
@@ -4132,31 +4647,36 @@
           <t>ms276_1_102</t>
         </is>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ms276_1_102</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>1818</v>
-      </c>
       <c r="D104" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E104" t="n">
         <v>10</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>24</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G104" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4168,31 +4688,36 @@
           <t>ms276_1_103</t>
         </is>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ms276_1_102</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>1818</v>
-      </c>
       <c r="D105" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E105" t="n">
         <v>10</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>24</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G105" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4204,31 +4729,36 @@
           <t>ms276_1_104</t>
         </is>
       </c>
-      <c r="B106" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>1818</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ms276_1_104</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D106" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E106" t="n">
         <v>10</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>30</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4240,31 +4770,36 @@
           <t>ms276_1_105</t>
         </is>
       </c>
-      <c r="B107" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>1818</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ms276_1_104</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D107" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E107" t="n">
         <v>10</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>30</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4276,31 +4811,36 @@
           <t>ms276_1_106</t>
         </is>
       </c>
-      <c r="B108" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>1818</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ms276_1_106</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D108" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E108" t="n">
         <v>11</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>2</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4312,31 +4852,36 @@
           <t>ms276_1_107</t>
         </is>
       </c>
-      <c r="B109" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>1818</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ms276_1_106</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D109" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E109" t="n">
         <v>11</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>2</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4348,31 +4893,36 @@
           <t>ms276_1_108</t>
         </is>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ms276_1_108</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>1818</v>
-      </c>
       <c r="D110" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E110" t="n">
         <v>11</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>29</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G110" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4384,31 +4934,36 @@
           <t>ms276_1_109</t>
         </is>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ms276_1_108</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>1818</v>
-      </c>
       <c r="D111" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E111" t="n">
         <v>11</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>29</v>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G111" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4420,31 +4975,36 @@
           <t>ms276_1_110</t>
         </is>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ms276_1_110</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>1818</v>
-      </c>
       <c r="D112" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>30</v>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G112" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4456,31 +5016,36 @@
           <t>ms276_1_111</t>
         </is>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ms276_1_110</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>1818</v>
-      </c>
       <c r="D113" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E113" t="n">
         <v>11</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>30</v>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G113" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4492,31 +5057,36 @@
           <t>ms276_1_112</t>
         </is>
       </c>
-      <c r="B114" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>1818</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ms276_1_112</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D114" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E114" t="n">
         <v>12</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>9</v>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4528,31 +5098,36 @@
           <t>ms276_1_113</t>
         </is>
       </c>
-      <c r="B115" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>1818</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ms276_1_112</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D115" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E115" t="n">
         <v>12</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>9</v>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4564,31 +5139,36 @@
           <t>ms276_1_114</t>
         </is>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ms276_1_114</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>1818</v>
-      </c>
       <c r="D116" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E116" t="n">
         <v>12</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>17</v>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G116" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4600,31 +5180,36 @@
           <t>ms276_1_115</t>
         </is>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ms276_1_114</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>1818</v>
-      </c>
       <c r="D117" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E117" t="n">
         <v>12</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>17</v>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G117" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4636,31 +5221,36 @@
           <t>ms276_1_116</t>
         </is>
       </c>
-      <c r="B118" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>1818</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ms276_1_116</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D118" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E118" t="n">
         <v>12</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>17</v>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4672,31 +5262,36 @@
           <t>ms276_1_117</t>
         </is>
       </c>
-      <c r="B119" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>1818</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ms276_1_116</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D119" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E119" t="n">
         <v>12</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>17</v>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4708,31 +5303,36 @@
           <t>ms276_1_118</t>
         </is>
       </c>
-      <c r="B120" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>1818</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ms276_1_118</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D120" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E120" t="n">
         <v>12</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>21</v>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4744,31 +5344,36 @@
           <t>ms276_1_119</t>
         </is>
       </c>
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>1818</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ms276_1_118</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D121" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E121" t="n">
         <v>12</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>21</v>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4780,31 +5385,36 @@
           <t>ms276_1_120</t>
         </is>
       </c>
-      <c r="B122" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>1818</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ms276_1_120</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D122" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E122" t="n">
         <v>12</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>24</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4816,31 +5426,36 @@
           <t>ms276_1_121</t>
         </is>
       </c>
-      <c r="B123" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1818</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ms276_1_121</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D123" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>26</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4852,31 +5467,36 @@
           <t>ms276_1_122</t>
         </is>
       </c>
-      <c r="B124" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>1818</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ms276_1_121</t>
+        </is>
+      </c>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D124" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E124" t="n">
         <v>12</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>26</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4888,31 +5508,36 @@
           <t>ms276_1_123</t>
         </is>
       </c>
-      <c r="B125" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>1818</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ms276_1_123</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D125" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E125" t="n">
         <v>12</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>29</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4924,31 +5549,36 @@
           <t>ms276_1_124</t>
         </is>
       </c>
-      <c r="B126" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>1818</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ms276_1_123</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D126" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E126" t="n">
         <v>12</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>29</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4960,31 +5590,36 @@
           <t>ms276_1_125</t>
         </is>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ms276_1_125</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>1818</v>
-      </c>
       <c r="D127" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E127" t="n">
         <v>12</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>17</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G127" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -4996,31 +5631,36 @@
           <t>ms276_1_126</t>
         </is>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ms276_1_125</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>1818</v>
-      </c>
       <c r="D128" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E128" t="n">
         <v>12</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>17</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G128" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5032,31 +5672,36 @@
           <t>ms276_1_127</t>
         </is>
       </c>
-      <c r="B129" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>1818</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ms276_1_127</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D129" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E129" t="n">
         <v>12</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>30</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5068,31 +5713,36 @@
           <t>ms276_1_128</t>
         </is>
       </c>
-      <c r="B130" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>1818</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ms276_1_127</t>
+        </is>
+      </c>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
       </c>
       <c r="D130" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E130" t="n">
         <v>12</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>30</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5104,31 +5754,36 @@
           <t>ms276_1_129</t>
         </is>
       </c>
-      <c r="B131" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ms276_1_129</t>
+        </is>
+      </c>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
         <v>1819</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>1</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>7</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5140,31 +5795,36 @@
           <t>ms276_1_130</t>
         </is>
       </c>
-      <c r="B132" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ms276_1_129</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
         <v>1819</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>1</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>7</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5176,31 +5836,36 @@
           <t>ms276_1_131</t>
         </is>
       </c>
-      <c r="B133" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ms276_1_131</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
         <v>1819</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>1</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>9</v>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5212,31 +5877,36 @@
           <t>ms276_1_132</t>
         </is>
       </c>
-      <c r="B134" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ms276_1_131</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
         <v>1819</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>1</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>9</v>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5248,31 +5918,36 @@
           <t>ms276_1_133</t>
         </is>
       </c>
-      <c r="B135" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ms276_1_133</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
         <v>1819</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>1</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>14</v>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5284,31 +5959,36 @@
           <t>ms276_1_134</t>
         </is>
       </c>
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ms276_1_133</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
         <v>1819</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>1</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>14</v>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5320,31 +6000,36 @@
           <t>ms276_1_135</t>
         </is>
       </c>
-      <c r="B137" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ms276_1_133</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
         <v>1819</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>1</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>14</v>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5356,31 +6041,36 @@
           <t>ms276_1_136</t>
         </is>
       </c>
-      <c r="B138" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ms276_1_133</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
         <v>1819</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>1</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>14</v>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5392,31 +6082,36 @@
           <t>ms276_1_137</t>
         </is>
       </c>
-      <c r="B139" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ms276_1_137</t>
+        </is>
+      </c>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
         <v>1819</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>1</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>16</v>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5428,31 +6123,36 @@
           <t>ms276_1_138</t>
         </is>
       </c>
-      <c r="B140" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ms276_1_137</t>
+        </is>
+      </c>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
         <v>1819</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>1</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>16</v>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5464,31 +6164,36 @@
           <t>ms276_1_139</t>
         </is>
       </c>
-      <c r="B141" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ms276_1_139</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
         <v>1819</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>1</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>19</v>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5500,31 +6205,36 @@
           <t>ms276_1_140</t>
         </is>
       </c>
-      <c r="B142" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ms276_1_139</t>
+        </is>
+      </c>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
         <v>1819</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>1</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>19</v>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5536,31 +6246,36 @@
           <t>ms276_1_141</t>
         </is>
       </c>
-      <c r="B143" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ms276_1_141</t>
+        </is>
+      </c>
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
         <v>1819</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>1</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>27</v>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5572,31 +6287,36 @@
           <t>ms276_1_142</t>
         </is>
       </c>
-      <c r="B144" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ms276_1_141</t>
+        </is>
+      </c>
+      <c r="C144" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
         <v>1819</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>1</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>27</v>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5608,31 +6328,36 @@
           <t>ms276_1_143</t>
         </is>
       </c>
-      <c r="B145" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ms276_1_141</t>
+        </is>
+      </c>
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
         <v>1819</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>1</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>27</v>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5644,31 +6369,36 @@
           <t>ms276_1_144</t>
         </is>
       </c>
-      <c r="B146" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ms276_1_141</t>
+        </is>
+      </c>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
         <v>1819</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>1</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>27</v>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5680,31 +6410,36 @@
           <t>ms276_1_145</t>
         </is>
       </c>
-      <c r="B147" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ms276_1_145</t>
+        </is>
+      </c>
+      <c r="C147" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
         <v>1819</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>2</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>3</v>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5716,31 +6451,36 @@
           <t>ms276_1_146</t>
         </is>
       </c>
-      <c r="B148" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ms276_1_145</t>
+        </is>
+      </c>
+      <c r="C148" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
         <v>1819</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>2</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>3</v>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5752,31 +6492,36 @@
           <t>ms276_1_147</t>
         </is>
       </c>
-      <c r="B149" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ms276_1_147</t>
+        </is>
+      </c>
+      <c r="C149" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
         <v>1819</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>2</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>10</v>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5788,31 +6533,36 @@
           <t>ms276_1_148</t>
         </is>
       </c>
-      <c r="B150" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ms276_1_147</t>
+        </is>
+      </c>
+      <c r="C150" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
         <v>1819</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>2</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>10</v>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5824,31 +6574,36 @@
           <t>ms276_1_149</t>
         </is>
       </c>
-      <c r="B151" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ms276_1_149</t>
+        </is>
+      </c>
+      <c r="C151" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
         <v>1819</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>12</v>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5860,31 +6615,36 @@
           <t>ms276_1_150</t>
         </is>
       </c>
-      <c r="B152" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ms276_1_150</t>
+        </is>
+      </c>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
         <v>1819</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>2</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>15</v>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5896,31 +6656,36 @@
           <t>ms276_1_151</t>
         </is>
       </c>
-      <c r="B153" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ms276_1_150</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
         <v>1819</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>2</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>15</v>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5932,31 +6697,36 @@
           <t>ms276_1_152</t>
         </is>
       </c>
-      <c r="B154" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ms276_1_152</t>
+        </is>
+      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
         <v>1819</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>2</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>20</v>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -5968,31 +6738,36 @@
           <t>ms276_1_153</t>
         </is>
       </c>
-      <c r="B155" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ms276_1_152</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
         <v>1819</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>2</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>20</v>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6004,31 +6779,36 @@
           <t>ms276_1_154</t>
         </is>
       </c>
-      <c r="B156" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ms276_1_154</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
         <v>1819</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>2</v>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>21</v>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6040,31 +6820,36 @@
           <t>ms276_1_155</t>
         </is>
       </c>
-      <c r="B157" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ms276_1_154</t>
+        </is>
+      </c>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
         <v>1819</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>2</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>21</v>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6076,31 +6861,36 @@
           <t>ms276_1_156</t>
         </is>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ms276_1_156</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>1819</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>2</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>25</v>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G158" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6112,31 +6902,36 @@
           <t>ms276_1_157</t>
         </is>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ms276_1_156</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>1819</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>2</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>25</v>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G159" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6148,31 +6943,36 @@
           <t>ms276_1_158</t>
         </is>
       </c>
-      <c r="B160" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ms276_1_158</t>
+        </is>
+      </c>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
         <v>1819</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>2</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>28</v>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6184,31 +6984,36 @@
           <t>ms276_1_159</t>
         </is>
       </c>
-      <c r="B161" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ms276_1_158</t>
+        </is>
+      </c>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
         <v>1819</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>2</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>28</v>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6220,31 +7025,36 @@
           <t>ms276_1_160</t>
         </is>
       </c>
-      <c r="B162" s="1" t="inlineStr">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ms276_1_160</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>1819</v>
-      </c>
-      <c r="D162" t="n">
-        <v>3</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F162" t="n">
+        <v>3</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>Ginevra</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6256,31 +7066,36 @@
           <t>ms276_1_161</t>
         </is>
       </c>
-      <c r="B163" s="1" t="inlineStr">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ms276_1_161</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="D163" t="n">
         <v>1819</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>3</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>11</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Ginevra</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6292,31 +7107,36 @@
           <t>ms276_1_162</t>
         </is>
       </c>
-      <c r="B164" s="1" t="inlineStr">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ms276_1_162</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>1819</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>3</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>29</v>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Ginevra</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6328,31 +7148,36 @@
           <t>ms276_1_163</t>
         </is>
       </c>
-      <c r="B165" s="1" t="inlineStr">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ms276_1_162</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="D165" t="n">
         <v>1819</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>3</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>29</v>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>Ginevra</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6364,31 +7189,36 @@
           <t>ms276_1_164</t>
         </is>
       </c>
-      <c r="B166" s="1" t="inlineStr">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ms276_1_164</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="D166" t="n">
         <v>1819</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>4</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>10</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>Ginevra</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6400,31 +7230,36 @@
           <t>ms276_1_165</t>
         </is>
       </c>
-      <c r="B167" s="1" t="inlineStr">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ms276_1_164</t>
+        </is>
+      </c>
+      <c r="C167" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>1819</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>4</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>10</v>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>Ginevra</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6436,31 +7271,36 @@
           <t>ms276_1_166</t>
         </is>
       </c>
-      <c r="B168" s="1" t="inlineStr">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ms276_1_166</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="D168" t="n">
         <v>1819</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>5</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>31</v>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G168" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6472,31 +7312,36 @@
           <t>ms276_1_167</t>
         </is>
       </c>
-      <c r="B169" s="1" t="inlineStr">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ms276_1_166</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>1819</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>5</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>31</v>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G169" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6508,31 +7353,36 @@
           <t>ms276_1_168</t>
         </is>
       </c>
-      <c r="B170" s="1" t="inlineStr">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ms276_1_168</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="D170" t="n">
         <v>1819</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>6</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>21</v>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G170" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6544,31 +7394,36 @@
           <t>ms276_1_169</t>
         </is>
       </c>
-      <c r="B171" s="1" t="inlineStr">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ms276_1_168</t>
+        </is>
+      </c>
+      <c r="C171" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="D171" t="n">
         <v>1819</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>6</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>21</v>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G171" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6580,31 +7435,36 @@
           <t>ms276_1_170</t>
         </is>
       </c>
-      <c r="B172" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ms276_1_170</t>
+        </is>
+      </c>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
         <v>1819</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>7</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>23</v>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6616,31 +7476,36 @@
           <t>ms276_1_171</t>
         </is>
       </c>
-      <c r="B173" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ms276_1_170</t>
+        </is>
+      </c>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
         <v>1819</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>7</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>23</v>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6652,31 +7517,36 @@
           <t>ms276_1_172</t>
         </is>
       </c>
-      <c r="B174" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ms276_1_172</t>
+        </is>
+      </c>
+      <c r="C174" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
         <v>1819</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>7</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>26</v>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6688,31 +7558,36 @@
           <t>ms276_1_173</t>
         </is>
       </c>
-      <c r="B175" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ms276_1_172</t>
+        </is>
+      </c>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
         <v>1819</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>7</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>26</v>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6724,31 +7599,36 @@
           <t>ms276_1_174</t>
         </is>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ms276_1_174</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C176" t="n">
+      <c r="D176" t="n">
         <v>1819</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>9</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>27</v>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G176" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6760,31 +7640,36 @@
           <t>ms276_1_175</t>
         </is>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ms276_1_174</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>Lettera del $Valle al $HoevenE</t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>1819</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>9</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>27</v>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G177" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
           <t>$Valle</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="I177" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6796,31 +7681,36 @@
           <t>ms276_1_176</t>
         </is>
       </c>
-      <c r="B178" s="1" t="inlineStr">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ms276_1_176</t>
+        </is>
+      </c>
+      <c r="C178" s="1" t="inlineStr">
         <is>
           <t>Lettera al $HoevenE circa la morte del $SavoiaCE</t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="D178" t="n">
         <v>1819</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>10</v>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>11</v>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>$HoevenE</t>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
+        <is>
+          <t>$HoevenE</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>$SavoiaCE</t>
         </is>
@@ -6832,31 +7722,36 @@
           <t>ms276_1_177</t>
         </is>
       </c>
-      <c r="B179" s="1" t="inlineStr">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ms276_1_176</t>
+        </is>
+      </c>
+      <c r="C179" s="1" t="inlineStr">
         <is>
           <t>Lettera al $HoevenE circa la morte del $SavoiaCE</t>
         </is>
       </c>
-      <c r="C179" t="n">
+      <c r="D179" t="n">
         <v>1819</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>10</v>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>11</v>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>$HoevenE</t>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
+        <is>
+          <t>$HoevenE</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
         <is>
           <t>$SavoiaCE</t>
         </is>
@@ -6868,26 +7763,31 @@
           <t>ms276_1_178</t>
         </is>
       </c>
-      <c r="B180" s="1" t="inlineStr">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ms276_1_178</t>
+        </is>
+      </c>
+      <c r="C180" s="1" t="inlineStr">
         <is>
           <t>Lettera di $OranjeWI al fratello</t>
         </is>
       </c>
-      <c r="C180" t="n">
+      <c r="D180" t="n">
         <v>1819</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>10</v>
       </c>
-      <c r="E180" t="n">
+      <c r="F180" t="n">
         <v>19</v>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>$OranjeWI</t>
         </is>
@@ -6899,26 +7799,31 @@
           <t>ms276_1_179</t>
         </is>
       </c>
-      <c r="B181" s="1" t="inlineStr">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ms276_1_178</t>
+        </is>
+      </c>
+      <c r="C181" s="1" t="inlineStr">
         <is>
           <t>Lettera di $OranjeWI al fratello</t>
         </is>
       </c>
-      <c r="C181" t="n">
+      <c r="D181" t="n">
         <v>1819</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>10</v>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>19</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>$OranjeWI</t>
         </is>
@@ -6930,31 +7835,36 @@
           <t>ms276_1_180</t>
         </is>
       </c>
-      <c r="B182" s="1" t="inlineStr">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ms276_1_180</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="D182" t="n">
         <v>1819</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>11</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>9</v>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G182" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="I182" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -6966,31 +7876,36 @@
           <t>ms276_1_181</t>
         </is>
       </c>
-      <c r="B183" s="1" t="inlineStr">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ms276_1_180</t>
+        </is>
+      </c>
+      <c r="C183" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>1819</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>11</v>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>9</v>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G183" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="I183" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7002,31 +7917,36 @@
           <t>ms276_1_182</t>
         </is>
       </c>
-      <c r="B184" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ms276_1_182</t>
+        </is>
+      </c>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
         <v>1819</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>11</v>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>12</v>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7038,31 +7958,36 @@
           <t>ms276_1_183</t>
         </is>
       </c>
-      <c r="B185" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ms276_1_182</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
         <v>1819</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>12</v>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7074,31 +7999,36 @@
           <t>ms276_1_184</t>
         </is>
       </c>
-      <c r="B186" s="1" t="inlineStr">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ms276_1_184</t>
+        </is>
+      </c>
+      <c r="C186" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>1819</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>11</v>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>24</v>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G186" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="I186" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7110,31 +8040,36 @@
           <t>ms276_1_185</t>
         </is>
       </c>
-      <c r="B187" s="1" t="inlineStr">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ms276_1_184</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C187" t="n">
+      <c r="D187" t="n">
         <v>1819</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>11</v>
       </c>
-      <c r="E187" t="n">
+      <c r="F187" t="n">
         <v>24</v>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G187" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="I187" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7146,31 +8081,36 @@
           <t>ms276_1_186</t>
         </is>
       </c>
-      <c r="B188" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ms276_1_186</t>
+        </is>
+      </c>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
         <v>1819</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>11</v>
       </c>
-      <c r="E188" t="n">
+      <c r="F188" t="n">
         <v>27</v>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7182,31 +8122,36 @@
           <t>ms276_1_187</t>
         </is>
       </c>
-      <c r="B189" s="1" t="inlineStr">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ms276_1_187</t>
+        </is>
+      </c>
+      <c r="C189" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="D189" t="n">
         <v>1819</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>12</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>18</v>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G189" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="I189" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7218,31 +8163,36 @@
           <t>ms276_1_188</t>
         </is>
       </c>
-      <c r="B190" s="1" t="inlineStr">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ms276_1_187</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C190" t="n">
+      <c r="D190" t="n">
         <v>1819</v>
       </c>
-      <c r="D190" t="n">
+      <c r="E190" t="n">
         <v>12</v>
       </c>
-      <c r="E190" t="n">
+      <c r="F190" t="n">
         <v>18</v>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G190" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="I190" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7254,31 +8204,36 @@
           <t>ms276_1_189</t>
         </is>
       </c>
-      <c r="B191" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ms276_1_189</t>
+        </is>
+      </c>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
         <v>1819</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>12</v>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>29</v>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7290,31 +8245,36 @@
           <t>ms276_1_190</t>
         </is>
       </c>
-      <c r="B192" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ms276_1_189</t>
+        </is>
+      </c>
+      <c r="C192" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
         <v>1819</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>12</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>29</v>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7326,31 +8286,36 @@
           <t>ms276_1_191</t>
         </is>
       </c>
-      <c r="B193" s="1" t="inlineStr">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ms276_1_191</t>
+        </is>
+      </c>
+      <c r="C193" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C193" t="n">
+      <c r="D193" t="n">
         <v>1819</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>12</v>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>29</v>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G193" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="I193" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7362,31 +8327,36 @@
           <t>ms276_1_192</t>
         </is>
       </c>
-      <c r="B194" s="1" t="inlineStr">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ms276_1_191</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="inlineStr">
         <is>
           <t>Lettera del $MarzanoF al $HoevenE</t>
         </is>
       </c>
-      <c r="C194" t="n">
+      <c r="D194" t="n">
         <v>1819</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>12</v>
       </c>
-      <c r="E194" t="n">
+      <c r="F194" t="n">
         <v>29</v>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G194" t="inlineStr">
         <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
           <t>$MarzanoF</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="I194" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7398,31 +8368,36 @@
           <t>ms276_1_193</t>
         </is>
       </c>
-      <c r="B195" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ms276_1_193</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
         <v>1819</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>12</v>
       </c>
-      <c r="E195" t="n">
+      <c r="F195" t="n">
         <v>31</v>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -7434,31 +8409,36 @@
           <t>ms276_1_194</t>
         </is>
       </c>
-      <c r="B196" s="1" t="inlineStr">
-        <is>
-          <t>Lettera del $Perron al $HoevenE</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ms276_1_193</t>
+        </is>
+      </c>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>Lettera del $Perron al $HoevenE</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
         <v>1819</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>12</v>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>31</v>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>$Perron</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
+        <is>
+          <t>$Perron</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
